--- a/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
+++ b/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DA02E-3408-4E8F-8ED1-58FB7634B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BE64D-DDBB-4528-9395-9DA63ECA3E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -351,13 +351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -1089,720 +1089,6 @@
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>Lirios</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>Carmesi</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>Orquideas</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>Rosas</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>Hortensia</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>Globos</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>Girasoles</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>Tulipanes</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>Liston</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>Tarjetas</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>Macetas</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>Claveles</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="0" t="inlineStr">
-        <is>
-          <t>Liston</t>
-        </is>
-      </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>690</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="0" t="inlineStr">
-        <is>
-          <t>Rosas</t>
-        </is>
-      </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="0" t="inlineStr">
-        <is>
-          <t>Globos</t>
-        </is>
-      </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>587</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="0" t="inlineStr">
-        <is>
-          <t>Macetas</t>
-        </is>
-      </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>392</t>
-        </is>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="0" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="0" t="inlineStr">
-        <is>
-          <t>Tarjetas</t>
-        </is>
-      </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="0" t="inlineStr">
-        <is>
-          <t>Orquideas</t>
-        </is>
-      </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="65">
-      <c r="A65" s="0" t="inlineStr">
-        <is>
-          <t>Hortensia</t>
-        </is>
-      </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>374</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="0" t="inlineStr">
-        <is>
-          <t>Girasoles</t>
-        </is>
-      </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="0" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
-      <c r="C67" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="0" t="inlineStr">
-        <is>
-          <t>Lirios</t>
-        </is>
-      </c>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="C68" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="0" t="inlineStr">
-        <is>
-          <t>Tulipanes</t>
-        </is>
-      </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="0" t="inlineStr">
-        <is>
-          <t>Carmesi</t>
-        </is>
-      </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="0" t="inlineStr">
-        <is>
-          <t>Claveles</t>
-        </is>
-      </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="C71" s="0" t="inlineStr">
-        <is>
-          <t>San Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="0" t="inlineStr">
-        <is>
-          <t>Lirios</t>
-        </is>
-      </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="C72" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="0" t="inlineStr">
-        <is>
-          <t>Girasoles</t>
-        </is>
-      </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="0" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="C74" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="0" t="inlineStr">
-        <is>
-          <t>Orquideas</t>
-        </is>
-      </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="0" t="inlineStr">
-        <is>
-          <t>Tarjetas</t>
-        </is>
-      </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="0" t="inlineStr">
-        <is>
-          <t>Tulipanes</t>
-        </is>
-      </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="0" t="inlineStr">
-        <is>
-          <t>Claveles</t>
-        </is>
-      </c>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="C78" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="0" t="inlineStr">
-        <is>
-          <t>Macetas</t>
-        </is>
-      </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="0" t="inlineStr">
-        <is>
-          <t>Hortensia</t>
-        </is>
-      </c>
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="0" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C81" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="0" t="inlineStr">
-        <is>
-          <t>Carmesi</t>
-        </is>
-      </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>236</t>
-        </is>
-      </c>
-      <c r="C82" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="0" t="inlineStr">
-        <is>
-          <t>Rosas</t>
-        </is>
-      </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="C83" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="0" t="inlineStr">
-        <is>
-          <t>Globos</t>
-        </is>
-      </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="C84" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="0" t="inlineStr">
-        <is>
-          <t>Liston</t>
-        </is>
-      </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t>Santa Ana</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
+++ b/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BE64D-DDBB-4528-9395-9DA63ECA3E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D03C7-35A5-463E-BA1F-C787CF83C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="A2" sqref="A2:C85"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
+++ b/Fiorella_Data_Excel/Preferencias_Departamentales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D03C7-35A5-463E-BA1F-C787CF83C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B088F3-878B-41BD-8A1E-9036E5CA6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
